--- a/src/main/resources/excel/billCollect.xlsx
+++ b/src/main/resources/excel/billCollect.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EF0C588-32D2-4824-A5E1-B6511D8AB6C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="沃尔沃面套" sheetId="3" r:id="rId1"/>
@@ -235,14 +234,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>advanceFeeNoTax</t>
+    <t>t.advanceFeeNoTax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#.00&quot;元/车&quot;"/>
@@ -445,8 +444,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
@@ -1212,14 +1211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12"/>
@@ -1238,8 +1237,9 @@
     <col min="13" max="13" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="4" customWidth="1"/>
     <col min="19" max="19" width="4.75" style="9" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="7.5" style="4"/>
   </cols>
@@ -1668,7 +1668,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"销售运费,原材料运费"</formula1>
     </dataValidation>
   </dataValidations>
